--- a/troops-domestic-by-service-20170822/troops-domestic-by-service-20170822.xlsx
+++ b/troops-domestic-by-service-20170822/troops-domestic-by-service-20170822.xlsx
@@ -17,13 +17,10 @@
     <t>key</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
-    <t>headline</t>
+    <t>value</t>
   </si>
   <si>
     <t>Army</t>
@@ -39,6 +36,9 @@
   </si>
   <si>
     <t>Coast Guard</t>
+  </si>
+  <si>
+    <t>headline</t>
   </si>
   <si>
     <t>How Are U.S. Forces Deployed Domestically?</t>
@@ -263,21 +263,14 @@
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -285,47 +278,47 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -336,15 +329,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -359,38 +355,38 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6"/>
@@ -419,7 +415,7 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -451,7 +447,7 @@
       <c r="Z3" s="6"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="10"/>
@@ -481,10 +477,10 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6"/>
@@ -513,10 +509,10 @@
       <c r="Z5" s="6"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="6"/>
@@ -545,8 +541,8 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -573,8 +569,8 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -601,8 +597,8 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -629,8 +625,8 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -831,6 +827,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -845,72 +844,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
       <c r="BC1" s="7"/>
     </row>
     <row r="2">
